--- a/data/Financial_Models/TRV Filtered.xlsx
+++ b/data/Financial_Models/TRV Filtered.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS28"/>
+  <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,6 @@
       <c r="BP1" t="inlineStr"/>
       <c r="BQ1" t="inlineStr"/>
       <c r="BR1" t="inlineStr"/>
-      <c r="BS1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -575,7 +574,6 @@
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -790,7 +788,6 @@
       <c r="BR3" t="n">
         <v>366</v>
       </c>
-      <c r="BS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1143,11 +1140,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1360,7 +1352,6 @@
       <c r="BR5" t="n">
         <v>53376.86796825912</v>
       </c>
-      <c r="BS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1573,7 +1564,6 @@
       <c r="BR6" t="n">
         <v>49984.67792517476</v>
       </c>
-      <c r="BS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1786,7 +1776,6 @@
       <c r="BR7" t="n">
         <v>691.9720306624637</v>
       </c>
-      <c r="BS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1999,7 +1988,6 @@
       <c r="BR8" t="n">
         <v>13.62427323989023</v>
       </c>
-      <c r="BS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2212,7 +2200,6 @@
       <c r="BR9" t="n">
         <v>1660.178820853467</v>
       </c>
-      <c r="BS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2425,7 +2412,6 @@
       <c r="BR10" t="n">
         <v>31411.71877911025</v>
       </c>
-      <c r="BS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2638,7 +2624,6 @@
       <c r="BR11" t="n">
         <v>0.04892069415341525</v>
       </c>
-      <c r="BS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2851,7 +2836,6 @@
       <c r="BR12" t="n">
         <v>48359.39402938054</v>
       </c>
-      <c r="BS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3064,7 +3048,6 @@
       <c r="BR13" t="n">
         <v>3789.05591535048</v>
       </c>
-      <c r="BS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3277,7 +3260,6 @@
       <c r="BR14" t="n">
         <v>60</v>
       </c>
-      <c r="BS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3354,7 +3336,6 @@
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3567,7 +3548,6 @@
       <c r="BR16" t="n">
         <v>2.051185194680667</v>
       </c>
-      <c r="BS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3674,7 +3654,6 @@
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3887,7 +3866,6 @@
       <c r="BR18" t="n">
         <v>202.293746</v>
       </c>
-      <c r="BS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3964,7 +3942,6 @@
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4175,7 +4152,6 @@
       <c r="BR20" t="n">
         <v>0.1167805851789838</v>
       </c>
-      <c r="BS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4252,7 +4228,6 @@
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4463,7 +4438,6 @@
       <c r="BR22" t="n">
         <v>0.048</v>
       </c>
-      <c r="BS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4676,7 +4650,6 @@
       <c r="BR23" t="n">
         <v>921</v>
       </c>
-      <c r="BS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4753,7 +4726,6 @@
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4830,7 +4802,6 @@
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4907,7 +4878,6 @@
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4984,7 +4954,6 @@
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5061,9 +5030,8 @@
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>